--- a/Data/Processed/Angiosperms/missing_powo_ipni/Cucurbitaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Cucurbitaceae.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -18524,7 +18524,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -18667,7 +18667,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -19305,7 +19305,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -23881,7 +23881,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -24959,7 +24959,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -24969,7 +24969,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Acad. Roy. Sci. Belgique ser. 3, 16: 244. 1888 </t>
+          <t>Bull. Acad. Roy. Sci. Belgique ser. 3, 16: 244. 1888</t>
         </is>
       </c>
       <c r="J441" t="b">
@@ -25037,7 +25037,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 11: 774. 1933 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 11: 774. 1933</t>
         </is>
       </c>
       <c r="J442" t="b">
